--- a/wp-content/themes/recursos/Lista de tareas.xlsx
+++ b/wp-content/themes/recursos/Lista de tareas.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
   <si>
     <t xml:space="preserve">
  Tareas</t>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>Asignar diseño de pagina web y especificaciones del cliente</t>
+  </si>
+  <si>
+    <t>Carlos</t>
   </si>
   <si>
     <t>Desarrollar y presentar propuesta de diseño pagina web</t>
@@ -309,7 +312,7 @@
       </c>
       <c r="D1" s="2" t="str">
         <f>CONCATENATE(COUNTIF($B$4:$B$57,TRUE), "/", COUNTA($D$4:$D$57), " completadas  ")</f>
-        <v>5/24 completadas  </v>
+        <v>8/24 completadas  </v>
       </c>
     </row>
     <row r="2" ht="6.0" customHeight="1">
@@ -365,7 +368,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>9</v>
@@ -421,7 +424,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>14</v>
@@ -435,7 +438,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="9" t="s">
@@ -443,13 +446,15 @@
       </c>
     </row>
     <row r="12" ht="26.25" customHeight="1">
-      <c r="A12" s="7"/>
+      <c r="A12" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="B12" s="7" t="b">
         <v>0</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" ht="26.25" customHeight="1">
@@ -461,27 +466,31 @@
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" ht="26.25" customHeight="1">
-      <c r="A14" s="7"/>
+      <c r="A14" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="B14" s="7" t="b">
         <v>0</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" ht="26.25" customHeight="1">
-      <c r="A15" s="7"/>
+      <c r="A15" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="B15" s="7" t="b">
         <v>0</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="26.25" customHeight="1">
@@ -493,7 +502,7 @@
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" ht="26.25" customHeight="1">
@@ -503,7 +512,7 @@
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" ht="26.25" customHeight="1">
@@ -515,7 +524,7 @@
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" ht="26.25" customHeight="1">
@@ -525,7 +534,7 @@
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" ht="26.25" customHeight="1">
@@ -537,7 +546,7 @@
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" ht="26.25" customHeight="1">
@@ -547,7 +556,7 @@
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" ht="26.25" customHeight="1">
@@ -559,7 +568,7 @@
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" ht="26.25" customHeight="1">
@@ -569,7 +578,7 @@
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" ht="26.25" customHeight="1">
@@ -581,7 +590,7 @@
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" ht="26.25" customHeight="1">
@@ -591,7 +600,7 @@
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" ht="26.25" customHeight="1">
@@ -599,9 +608,11 @@
       <c r="B26" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="C26" s="8"/>
+      <c r="C26" s="8">
+        <v>45226.0</v>
+      </c>
       <c r="D26" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" ht="26.25" customHeight="1">
@@ -611,9 +622,11 @@
       <c r="B27" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="C27" s="8"/>
+      <c r="C27" s="8">
+        <v>45229.0</v>
+      </c>
       <c r="D27" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" ht="26.25" customHeight="1">
